--- a/nuts.xlsx
+++ b/nuts.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5B78CD03-97CC-495D-BE18-2550774A01FB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="684" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="684" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stat" sheetId="1" r:id="rId1"/>
@@ -297,7 +298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -904,7 +905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3030,7 +3031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5156,7 +5157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7282,7 +7283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
@@ -9408,11 +9409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10143,37 +10144,37 @@
       </c>
       <c r="C17" s="6">
         <f t="shared" si="0"/>
-        <v>12.600000000000001</v>
+        <v>36.699999999999996</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="1"/>
-        <v>12.600000000000001</v>
+        <v>36.699999999999996</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="2"/>
-        <v>12.600000000000001</v>
+        <v>36.699999999999996</v>
       </c>
       <c r="F17" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G17" s="7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="3"/>
-        <v>31.5</v>
+        <v>36</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J17" s="9">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K17" s="7">
         <v>0</v>
       </c>
       <c r="L17" s="7">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M17" s="9">
         <v>0</v>
@@ -10188,37 +10189,37 @@
       </c>
       <c r="C18" s="6">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>38.5</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>38.5</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>38.5</v>
       </c>
       <c r="F18" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G18" s="7">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="3"/>
-        <v>27.5</v>
+        <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J18" s="9">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="K18" s="7">
         <v>0</v>
       </c>
       <c r="L18" s="7">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M18" s="9">
         <v>0</v>
@@ -10233,37 +10234,37 @@
       </c>
       <c r="C19" s="6">
         <f t="shared" si="0"/>
-        <v>11.600000000000001</v>
+        <v>38.400000000000006</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="1"/>
-        <v>11.600000000000001</v>
+        <v>38.400000000000006</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="2"/>
-        <v>11.600000000000001</v>
+        <v>38.400000000000006</v>
       </c>
       <c r="F19" s="9">
+        <v>35</v>
+      </c>
+      <c r="G19" s="7">
+        <v>29</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="G19" s="7">
-        <v>26</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J19" s="9">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K19" s="7">
         <v>0</v>
       </c>
       <c r="L19" s="7">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="M19" s="9">
         <v>0</v>
@@ -11534,7 +11535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
